--- a/src/main/resources/dumy-data/majors.xlsx
+++ b/src/main/resources/dumy-data/majors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cashlog\src\main\resources\dumy-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7638E4AA-2D4A-47E4-88A8-FAA28BB11624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FF5A32-DBD5-47C1-81F5-C107583F7DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{3D735BB8-4E17-4D60-8EC8-7227688D6051}"/>
   </bookViews>
@@ -41,16 +41,16 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Software Engineer</t>
-  </si>
-  <si>
     <t>Công nghệ Phần mềm</t>
   </si>
   <si>
-    <t>Information Security</t>
-  </si>
-  <si>
     <t>An toàn thông tin</t>
+  </si>
+  <si>
+    <t>SOFTWARE ENGINEER</t>
+  </si>
+  <si>
+    <t>INFORMATION TECHNOLOGY</t>
   </si>
 </sst>
 </file>
@@ -412,12 +412,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
@@ -432,18 +432,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/dumy-data/majors.xlsx
+++ b/src/main/resources/dumy-data/majors.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cashlog\src\main\resources\dumy-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\springboot-cashlog\src\main\resources\dumy-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FF5A32-DBD5-47C1-81F5-C107583F7DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7386D3E-EA27-48C9-BA46-150E5C245D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{3D735BB8-4E17-4D60-8EC8-7227688D6051}"/>
   </bookViews>
@@ -47,10 +47,10 @@
     <t>An toàn thông tin</t>
   </si>
   <si>
-    <t>SOFTWARE ENGINEER</t>
-  </si>
-  <si>
-    <t>INFORMATION TECHNOLOGY</t>
+    <t>SOFTWARE ENGINEERING</t>
+  </si>
+  <si>
+    <t>INFORMATION SECURITY</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
